--- a/econ/p11/p11.xlsx
+++ b/econ/p11/p11.xlsx
@@ -460,200 +460,188 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -851,1603 +839,1649 @@
   </sheetPr>
   <dimension ref="A2:AJ40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B22" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="topRight" activeCell="L16" activeCellId="0" sqref="L16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B10" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topRight" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="54.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="1" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="1" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="1" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="21.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.89"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE13" s="13" t="s">
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AF13" s="14" t="s">
+      <c r="AF13" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="T14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="U14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="V14" s="9" t="s">
+      <c r="V14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="W14" s="9" t="s">
+      <c r="W14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="X14" s="9" t="s">
+      <c r="X14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Y14" s="9" t="s">
+      <c r="Y14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Z14" s="9" t="s">
+      <c r="Z14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AA14" s="9" t="s">
+      <c r="AA14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AB14" s="9" t="s">
+      <c r="AB14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AC14" s="9" t="s">
+      <c r="AC14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AD14" s="12" t="s">
+      <c r="AD14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="19" t="n">
+      <c r="B15" s="20" t="n">
         <v>4586.7</v>
       </c>
-      <c r="C15" s="19" t="n">
+      <c r="C15" s="20" t="n">
         <v>4300</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="D15" s="20" t="n">
         <v>4600</v>
       </c>
-      <c r="E15" s="19" t="n">
+      <c r="E15" s="20" t="n">
         <f aca="false">D15+1</f>
         <v>4601</v>
       </c>
-      <c r="F15" s="19" t="n">
+      <c r="F15" s="20" t="n">
         <f aca="false">E15+1</f>
         <v>4602</v>
       </c>
-      <c r="G15" s="19" t="n">
+      <c r="G15" s="20" t="n">
         <f aca="false">F15+1</f>
         <v>4603</v>
       </c>
-      <c r="H15" s="19" t="n">
+      <c r="H15" s="20" t="n">
         <f aca="false">G15+1</f>
         <v>4604</v>
       </c>
-      <c r="I15" s="19" t="n">
+      <c r="I15" s="20" t="n">
         <v>1300</v>
       </c>
-      <c r="J15" s="19" t="n">
+      <c r="J15" s="20" t="n">
         <v>3000</v>
       </c>
-      <c r="K15" s="19" t="n">
+      <c r="K15" s="20" t="n">
         <v>1400</v>
       </c>
-      <c r="L15" s="20" t="n">
+      <c r="L15" s="21" t="n">
         <f aca="false">K15+1</f>
         <v>1401</v>
       </c>
-      <c r="M15" s="19" t="n">
+      <c r="M15" s="20" t="n">
         <v>1500</v>
       </c>
-      <c r="N15" s="19" t="n">
+      <c r="N15" s="20" t="n">
         <v>4190</v>
       </c>
-      <c r="O15" s="19" t="n">
+      <c r="O15" s="20" t="n">
         <f aca="false">N15+1</f>
         <v>4191</v>
       </c>
-      <c r="P15" s="19" t="n">
+      <c r="P15" s="20" t="n">
         <v>1450</v>
       </c>
-      <c r="Q15" s="19" t="n">
+      <c r="Q15" s="20" t="n">
         <v>3900</v>
       </c>
-      <c r="R15" s="19" t="n">
+      <c r="R15" s="20" t="n">
         <f aca="false">Q15+1</f>
         <v>3901</v>
       </c>
-      <c r="S15" s="19" t="n">
+      <c r="S15" s="20" t="n">
         <v>1460</v>
       </c>
-      <c r="T15" s="19" t="n">
+      <c r="T15" s="20" t="n">
         <v>4100</v>
       </c>
-      <c r="U15" s="19" t="n">
+      <c r="U15" s="20" t="n">
         <f aca="false">T15+1</f>
         <v>4101</v>
       </c>
-      <c r="V15" s="19" t="n">
+      <c r="V15" s="20" t="n">
         <v>1380</v>
       </c>
-      <c r="W15" s="19" t="n">
+      <c r="W15" s="20" t="n">
         <v>2500</v>
       </c>
-      <c r="X15" s="19" t="n">
+      <c r="X15" s="20" t="n">
         <f aca="false">W15+1</f>
         <v>2501</v>
       </c>
-      <c r="Y15" s="19" t="n">
+      <c r="Y15" s="20" t="n">
         <v>1380</v>
       </c>
-      <c r="Z15" s="19" t="n">
+      <c r="Z15" s="20" t="n">
         <v>3100</v>
       </c>
-      <c r="AA15" s="19" t="n">
+      <c r="AA15" s="20" t="n">
         <f aca="false">Z15+1</f>
         <v>3101</v>
       </c>
-      <c r="AB15" s="19" t="n">
+      <c r="AB15" s="20" t="n">
         <v>4100</v>
       </c>
-      <c r="AC15" s="19" t="n">
+      <c r="AC15" s="20" t="n">
         <f aca="false">AB15+1</f>
         <v>4101</v>
       </c>
-      <c r="AD15" s="19" t="n">
+      <c r="AD15" s="20" t="n">
         <v>1500</v>
       </c>
-      <c r="AE15" s="21" t="s">
+      <c r="AE15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AF15" s="22" t="s">
+      <c r="AF15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AH15" s="1" t="n">
         <v>3183.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="23" t="n">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="24" t="n">
         <f aca="false">B25/L15*100</f>
         <v>111.149179157744</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="26"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="28" t="n">
+      <c r="B17" s="29" t="n">
         <v>526.7</v>
       </c>
-      <c r="C17" s="28" t="n">
+      <c r="C17" s="29" t="n">
         <v>226.7</v>
       </c>
-      <c r="D17" s="28" t="n">
+      <c r="D17" s="29" t="n">
         <f aca="false">C17+1</f>
         <v>227.7</v>
       </c>
-      <c r="E17" s="28" t="n">
+      <c r="E17" s="29" t="n">
         <f aca="false">D17+1</f>
         <v>228.7</v>
       </c>
-      <c r="F17" s="28" t="n">
+      <c r="F17" s="29" t="n">
         <f aca="false">E17+1</f>
         <v>229.7</v>
       </c>
-      <c r="G17" s="28" t="n">
+      <c r="G17" s="29" t="n">
         <f aca="false">F17+1</f>
         <v>230.7</v>
       </c>
-      <c r="H17" s="28" t="n">
+      <c r="H17" s="29" t="n">
         <f aca="false">G17+1</f>
         <v>231.7</v>
       </c>
-      <c r="I17" s="28" t="n">
+      <c r="I17" s="29" t="n">
         <f aca="false">H17+1</f>
         <v>232.7</v>
       </c>
-      <c r="J17" s="28" t="n">
+      <c r="J17" s="29" t="n">
         <f aca="false">I17+1</f>
         <v>233.7</v>
       </c>
-      <c r="K17" s="28" t="n">
+      <c r="K17" s="29" t="n">
         <f aca="false">J17+1</f>
         <v>234.7</v>
       </c>
-      <c r="L17" s="29" t="n">
+      <c r="L17" s="30" t="n">
         <f aca="false">K17+1</f>
         <v>235.7</v>
       </c>
-      <c r="M17" s="28" t="n">
+      <c r="M17" s="29" t="n">
         <f aca="false">L17+1</f>
         <v>236.7</v>
       </c>
-      <c r="N17" s="28" t="n">
+      <c r="N17" s="29" t="n">
         <f aca="false">M17+1</f>
         <v>237.7</v>
       </c>
-      <c r="O17" s="28" t="n">
+      <c r="O17" s="29" t="n">
         <f aca="false">N17+1</f>
         <v>238.7</v>
       </c>
-      <c r="P17" s="28" t="n">
+      <c r="P17" s="29" t="n">
         <f aca="false">O17+1</f>
         <v>239.7</v>
       </c>
-      <c r="Q17" s="28" t="n">
+      <c r="Q17" s="29" t="n">
         <f aca="false">P17+1</f>
         <v>240.7</v>
       </c>
-      <c r="R17" s="28" t="n">
+      <c r="R17" s="29" t="n">
         <f aca="false">Q17+1</f>
         <v>241.7</v>
       </c>
-      <c r="S17" s="28" t="n">
+      <c r="S17" s="29" t="n">
         <f aca="false">R17+1</f>
         <v>242.7</v>
       </c>
-      <c r="T17" s="28" t="n">
+      <c r="T17" s="29" t="n">
         <f aca="false">S17+1</f>
         <v>243.7</v>
       </c>
-      <c r="U17" s="28" t="n">
+      <c r="U17" s="29" t="n">
         <f aca="false">T17+1</f>
         <v>244.7</v>
       </c>
-      <c r="V17" s="28" t="n">
+      <c r="V17" s="29" t="n">
         <f aca="false">U17+1</f>
         <v>245.7</v>
       </c>
-      <c r="W17" s="28" t="n">
+      <c r="W17" s="29" t="n">
         <f aca="false">V17+1</f>
         <v>246.7</v>
       </c>
-      <c r="X17" s="28" t="n">
+      <c r="X17" s="29" t="n">
         <f aca="false">W17+1</f>
         <v>247.7</v>
       </c>
-      <c r="Y17" s="28" t="n">
+      <c r="Y17" s="29" t="n">
         <f aca="false">X17+1</f>
         <v>248.7</v>
       </c>
-      <c r="Z17" s="28" t="n">
+      <c r="Z17" s="29" t="n">
         <f aca="false">Y17+1</f>
         <v>249.7</v>
       </c>
-      <c r="AA17" s="28" t="n">
+      <c r="AA17" s="29" t="n">
         <f aca="false">Z17+1</f>
         <v>250.7</v>
       </c>
-      <c r="AB17" s="28" t="n">
+      <c r="AB17" s="29" t="n">
         <f aca="false">AA17+1</f>
         <v>251.7</v>
       </c>
-      <c r="AC17" s="28" t="n">
+      <c r="AC17" s="29" t="n">
         <f aca="false">AB17+1</f>
         <v>252.7</v>
       </c>
-      <c r="AD17" s="28" t="n">
+      <c r="AD17" s="29" t="n">
         <f aca="false">AC17+1</f>
         <v>253.7</v>
       </c>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="31"/>
-      <c r="AI17" s="32" t="n">
+      <c r="AE17" s="31" t="n">
+        <f aca="false">L17/$B$25</f>
+        <v>0.151361417929617</v>
+      </c>
+      <c r="AF17" s="32" t="n">
+        <f aca="false">L17/$L$15*100</f>
+        <v>16.8236973590293</v>
+      </c>
+      <c r="AI17" s="33" t="n">
         <f aca="false">AD17/AD15*100</f>
         <v>16.9133333333333</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="6" t="n">
         <v>187.3</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="6" t="n">
         <v>87.3</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="6" t="n">
         <f aca="false">C18+1</f>
         <v>88.3</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="6" t="n">
         <f aca="false">D18+1</f>
         <v>89.3</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6" t="n">
         <f aca="false">E18+1</f>
         <v>90.3</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="6" t="n">
         <f aca="false">F18+1</f>
         <v>91.3</v>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H18" s="6" t="n">
         <f aca="false">G18+1</f>
         <v>92.3</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="I18" s="6" t="n">
         <f aca="false">H18+1</f>
         <v>93.3</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="6" t="n">
         <f aca="false">I18+1</f>
         <v>94.3</v>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="6" t="n">
         <f aca="false">J18+1</f>
         <v>95.3</v>
       </c>
-      <c r="L18" s="34" t="n">
+      <c r="L18" s="35" t="n">
         <f aca="false">K18+1</f>
         <v>96.3</v>
       </c>
-      <c r="M18" s="5" t="n">
+      <c r="M18" s="6" t="n">
         <f aca="false">L18+1</f>
         <v>97.3</v>
       </c>
-      <c r="N18" s="5" t="n">
+      <c r="N18" s="6" t="n">
         <f aca="false">M18+1</f>
         <v>98.3</v>
       </c>
-      <c r="O18" s="5" t="n">
+      <c r="O18" s="6" t="n">
         <f aca="false">N18+1</f>
         <v>99.3</v>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="P18" s="6" t="n">
         <f aca="false">O18+1</f>
         <v>100.3</v>
       </c>
-      <c r="Q18" s="5" t="n">
+      <c r="Q18" s="6" t="n">
         <f aca="false">P18+1</f>
         <v>101.3</v>
       </c>
-      <c r="R18" s="5" t="n">
+      <c r="R18" s="6" t="n">
         <f aca="false">Q18+1</f>
         <v>102.3</v>
       </c>
-      <c r="S18" s="5" t="n">
+      <c r="S18" s="6" t="n">
         <f aca="false">R18+1</f>
         <v>103.3</v>
       </c>
-      <c r="T18" s="5" t="n">
+      <c r="T18" s="6" t="n">
         <f aca="false">S18+1</f>
         <v>104.3</v>
       </c>
-      <c r="U18" s="5" t="n">
+      <c r="U18" s="6" t="n">
         <f aca="false">T18+1</f>
         <v>105.3</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="6" t="n">
         <f aca="false">U18+1</f>
         <v>106.3</v>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="6" t="n">
         <f aca="false">V18+1</f>
         <v>107.3</v>
       </c>
-      <c r="X18" s="5" t="n">
+      <c r="X18" s="6" t="n">
         <f aca="false">W18+1</f>
         <v>108.3</v>
       </c>
-      <c r="Y18" s="5" t="n">
+      <c r="Y18" s="6" t="n">
         <f aca="false">X18+1</f>
         <v>109.3</v>
       </c>
-      <c r="Z18" s="5" t="n">
+      <c r="Z18" s="6" t="n">
         <f aca="false">Y18+1</f>
         <v>110.3</v>
       </c>
-      <c r="AA18" s="5" t="n">
+      <c r="AA18" s="6" t="n">
         <f aca="false">Z18+1</f>
         <v>111.3</v>
       </c>
-      <c r="AB18" s="5" t="n">
+      <c r="AB18" s="6" t="n">
         <f aca="false">AA18+1</f>
         <v>112.3</v>
       </c>
-      <c r="AC18" s="5" t="n">
+      <c r="AC18" s="6" t="n">
         <f aca="false">AB18+1</f>
         <v>113.3</v>
       </c>
-      <c r="AD18" s="5" t="n">
+      <c r="AD18" s="6" t="n">
         <f aca="false">AC18+1</f>
         <v>114.3</v>
       </c>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="31"/>
-      <c r="AI18" s="32" t="n">
+      <c r="AE18" s="31" t="n">
+        <f aca="false">L18/$B$25</f>
+        <v>0.0618417672745954</v>
+      </c>
+      <c r="AF18" s="32" t="n">
+        <f aca="false">L18/$L$15*100</f>
+        <v>6.87366167023555</v>
+      </c>
+      <c r="AI18" s="33" t="n">
         <f aca="false">AD18/AD15*100</f>
         <v>7.62</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="6" t="n">
         <v>567.5</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="6" t="n">
         <v>457.5</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="6" t="n">
         <f aca="false">C19+1</f>
         <v>458.5</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="6" t="n">
         <f aca="false">D19+1</f>
         <v>459.5</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="6" t="n">
         <f aca="false">E19+1</f>
         <v>460.5</v>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="6" t="n">
         <f aca="false">F19+1</f>
         <v>461.5</v>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="H19" s="6" t="n">
         <f aca="false">G19+1</f>
         <v>462.5</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="6" t="n">
         <f aca="false">H19+1</f>
         <v>463.5</v>
       </c>
-      <c r="J19" s="5" t="n">
+      <c r="J19" s="6" t="n">
         <f aca="false">I19+1</f>
         <v>464.5</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="6" t="n">
         <f aca="false">J19+1</f>
         <v>465.5</v>
       </c>
-      <c r="L19" s="34" t="n">
+      <c r="L19" s="35" t="n">
         <f aca="false">K19+1</f>
         <v>466.5</v>
       </c>
-      <c r="M19" s="5" t="n">
+      <c r="M19" s="6" t="n">
         <f aca="false">L19+1</f>
         <v>467.5</v>
       </c>
-      <c r="N19" s="5" t="n">
+      <c r="N19" s="6" t="n">
         <f aca="false">M19+1</f>
         <v>468.5</v>
       </c>
-      <c r="O19" s="5" t="n">
+      <c r="O19" s="6" t="n">
         <f aca="false">N19+1</f>
         <v>469.5</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="6" t="n">
         <f aca="false">O19+1</f>
         <v>470.5</v>
       </c>
-      <c r="Q19" s="5" t="n">
+      <c r="Q19" s="6" t="n">
         <f aca="false">P19+1</f>
         <v>471.5</v>
       </c>
-      <c r="R19" s="5" t="n">
+      <c r="R19" s="6" t="n">
         <f aca="false">Q19+1</f>
         <v>472.5</v>
       </c>
-      <c r="S19" s="5" t="n">
+      <c r="S19" s="6" t="n">
         <f aca="false">R19+1</f>
         <v>473.5</v>
       </c>
-      <c r="T19" s="5" t="n">
+      <c r="T19" s="6" t="n">
         <f aca="false">S19+1</f>
         <v>474.5</v>
       </c>
-      <c r="U19" s="5" t="n">
+      <c r="U19" s="6" t="n">
         <f aca="false">T19+1</f>
         <v>475.5</v>
       </c>
-      <c r="V19" s="5" t="n">
+      <c r="V19" s="6" t="n">
         <f aca="false">U19+1</f>
         <v>476.5</v>
       </c>
-      <c r="W19" s="5" t="n">
+      <c r="W19" s="6" t="n">
         <f aca="false">V19+1</f>
         <v>477.5</v>
       </c>
-      <c r="X19" s="5" t="n">
+      <c r="X19" s="6" t="n">
         <f aca="false">W19+1</f>
         <v>478.5</v>
       </c>
-      <c r="Y19" s="5" t="n">
+      <c r="Y19" s="6" t="n">
         <f aca="false">X19+1</f>
         <v>479.5</v>
       </c>
-      <c r="Z19" s="5" t="n">
+      <c r="Z19" s="6" t="n">
         <f aca="false">Y19+1</f>
         <v>480.5</v>
       </c>
-      <c r="AA19" s="5" t="n">
+      <c r="AA19" s="6" t="n">
         <f aca="false">Z19+1</f>
         <v>481.5</v>
       </c>
-      <c r="AB19" s="5" t="n">
+      <c r="AB19" s="6" t="n">
         <f aca="false">AA19+1</f>
         <v>482.5</v>
       </c>
-      <c r="AC19" s="5" t="n">
+      <c r="AC19" s="6" t="n">
         <f aca="false">AB19+1</f>
         <v>483.5</v>
       </c>
-      <c r="AD19" s="5" t="n">
+      <c r="AD19" s="6" t="n">
         <f aca="false">AC19+1</f>
         <v>484.5</v>
       </c>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="31"/>
-      <c r="AI19" s="32" t="n">
+      <c r="AE19" s="31" t="n">
+        <f aca="false">L19/$B$25</f>
+        <v>0.299576162342666</v>
+      </c>
+      <c r="AF19" s="32" t="n">
+        <f aca="false">L19/$L$15*100</f>
+        <v>33.2976445396146</v>
+      </c>
+      <c r="AI19" s="33" t="n">
         <f aca="false">AD19/AD15*100</f>
         <v>32.3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="6" t="n">
         <v>123.1</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="6" t="n">
         <v>123.1</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="6" t="n">
         <f aca="false">C20+1</f>
         <v>124.1</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="6" t="n">
         <f aca="false">D20+1</f>
         <v>125.1</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="6" t="n">
         <f aca="false">E20+1</f>
         <v>126.1</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="6" t="n">
         <f aca="false">F20+1</f>
         <v>127.1</v>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="H20" s="6" t="n">
         <f aca="false">G20+1</f>
         <v>128.1</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="6" t="n">
         <f aca="false">H20+1</f>
         <v>129.1</v>
       </c>
-      <c r="J20" s="5" t="n">
+      <c r="J20" s="6" t="n">
         <f aca="false">I20+1</f>
         <v>130.1</v>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="K20" s="6" t="n">
         <f aca="false">J20+1</f>
         <v>131.1</v>
       </c>
-      <c r="L20" s="34" t="n">
+      <c r="L20" s="35" t="n">
         <f aca="false">K20+1</f>
         <v>132.1</v>
       </c>
-      <c r="M20" s="5" t="n">
+      <c r="M20" s="6" t="n">
         <f aca="false">L20+1</f>
         <v>133.1</v>
       </c>
-      <c r="N20" s="5" t="n">
+      <c r="N20" s="6" t="n">
         <f aca="false">M20+1</f>
         <v>134.1</v>
       </c>
-      <c r="O20" s="5" t="n">
+      <c r="O20" s="6" t="n">
         <f aca="false">N20+1</f>
         <v>135.1</v>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="P20" s="6" t="n">
         <f aca="false">O20+1</f>
         <v>136.1</v>
       </c>
-      <c r="Q20" s="5" t="n">
+      <c r="Q20" s="6" t="n">
         <f aca="false">P20+1</f>
         <v>137.1</v>
       </c>
-      <c r="R20" s="5" t="n">
+      <c r="R20" s="6" t="n">
         <f aca="false">Q20+1</f>
         <v>138.1</v>
       </c>
-      <c r="S20" s="5" t="n">
+      <c r="S20" s="6" t="n">
         <f aca="false">R20+1</f>
         <v>139.1</v>
       </c>
-      <c r="T20" s="5" t="n">
+      <c r="T20" s="6" t="n">
         <f aca="false">S20+1</f>
         <v>140.1</v>
       </c>
-      <c r="U20" s="5" t="n">
+      <c r="U20" s="6" t="n">
         <f aca="false">T20+1</f>
         <v>141.1</v>
       </c>
-      <c r="V20" s="5" t="n">
+      <c r="V20" s="6" t="n">
         <f aca="false">U20+1</f>
         <v>142.1</v>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="6" t="n">
         <f aca="false">V20+1</f>
         <v>143.1</v>
       </c>
-      <c r="X20" s="5" t="n">
+      <c r="X20" s="6" t="n">
         <f aca="false">W20+1</f>
         <v>144.1</v>
       </c>
-      <c r="Y20" s="5" t="n">
+      <c r="Y20" s="6" t="n">
         <f aca="false">X20+1</f>
         <v>145.1</v>
       </c>
-      <c r="Z20" s="5" t="n">
+      <c r="Z20" s="6" t="n">
         <f aca="false">Y20+1</f>
         <v>146.1</v>
       </c>
-      <c r="AA20" s="5" t="n">
+      <c r="AA20" s="6" t="n">
         <f aca="false">Z20+1</f>
         <v>147.1</v>
       </c>
-      <c r="AB20" s="5" t="n">
+      <c r="AB20" s="6" t="n">
         <f aca="false">AA20+1</f>
         <v>148.1</v>
       </c>
-      <c r="AC20" s="5" t="n">
+      <c r="AC20" s="6" t="n">
         <f aca="false">AB20+1</f>
         <v>149.1</v>
       </c>
-      <c r="AD20" s="5" t="n">
+      <c r="AD20" s="6" t="n">
         <f aca="false">AC20+1</f>
         <v>150.1</v>
       </c>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="31"/>
-      <c r="AI20" s="32" t="n">
+      <c r="AE20" s="31" t="n">
+        <f aca="false">L20/$B$25</f>
+        <v>0.0848317492936039</v>
+      </c>
+      <c r="AF20" s="32" t="n">
+        <f aca="false">L20/$L$15*100</f>
+        <v>9.42897930049964</v>
+      </c>
+      <c r="AI20" s="33" t="n">
         <f aca="false">AD20/AD15*100</f>
         <v>10.0066666666667</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="6" t="n">
         <v>265.4</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="6" t="n">
         <v>245.4</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="6" t="n">
         <f aca="false">C21+1</f>
         <v>246.4</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="6" t="n">
         <f aca="false">D21+1</f>
         <v>247.4</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="6" t="n">
         <f aca="false">E21+1</f>
         <v>248.4</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="6" t="n">
         <f aca="false">F21+1</f>
         <v>249.4</v>
       </c>
-      <c r="H21" s="5" t="n">
+      <c r="H21" s="6" t="n">
         <f aca="false">G21+1</f>
         <v>250.4</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="6" t="n">
         <f aca="false">H21+1</f>
         <v>251.4</v>
       </c>
-      <c r="J21" s="5" t="n">
+      <c r="J21" s="6" t="n">
         <f aca="false">I21+1</f>
         <v>252.4</v>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="K21" s="6" t="n">
         <f aca="false">J21+1</f>
         <v>253.4</v>
       </c>
-      <c r="L21" s="34" t="n">
+      <c r="L21" s="35" t="n">
         <f aca="false">K21+1</f>
         <v>254.4</v>
       </c>
-      <c r="M21" s="5" t="n">
+      <c r="M21" s="6" t="n">
         <f aca="false">L21+1</f>
         <v>255.4</v>
       </c>
-      <c r="N21" s="5" t="n">
+      <c r="N21" s="6" t="n">
         <f aca="false">M21+1</f>
         <v>256.4</v>
       </c>
-      <c r="O21" s="5" t="n">
+      <c r="O21" s="6" t="n">
         <f aca="false">N21+1</f>
         <v>257.4</v>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="P21" s="6" t="n">
         <f aca="false">O21+1</f>
         <v>258.4</v>
       </c>
-      <c r="Q21" s="5" t="n">
+      <c r="Q21" s="6" t="n">
         <f aca="false">P21+1</f>
         <v>259.4</v>
       </c>
-      <c r="R21" s="5" t="n">
+      <c r="R21" s="6" t="n">
         <f aca="false">Q21+1</f>
         <v>260.4</v>
       </c>
-      <c r="S21" s="5" t="n">
+      <c r="S21" s="6" t="n">
         <f aca="false">R21+1</f>
         <v>261.4</v>
       </c>
-      <c r="T21" s="5" t="n">
+      <c r="T21" s="6" t="n">
         <f aca="false">S21+1</f>
         <v>262.4</v>
       </c>
-      <c r="U21" s="5" t="n">
+      <c r="U21" s="6" t="n">
         <f aca="false">T21+1</f>
         <v>263.4</v>
       </c>
-      <c r="V21" s="5" t="n">
+      <c r="V21" s="6" t="n">
         <f aca="false">U21+1</f>
         <v>264.4</v>
       </c>
-      <c r="W21" s="5" t="n">
+      <c r="W21" s="6" t="n">
         <f aca="false">V21+1</f>
         <v>265.4</v>
       </c>
-      <c r="X21" s="5" t="n">
+      <c r="X21" s="6" t="n">
         <f aca="false">W21+1</f>
         <v>266.4</v>
       </c>
-      <c r="Y21" s="5" t="n">
+      <c r="Y21" s="6" t="n">
         <f aca="false">X21+1</f>
         <v>267.4</v>
       </c>
-      <c r="Z21" s="5" t="n">
+      <c r="Z21" s="6" t="n">
         <f aca="false">Y21+1</f>
         <v>268.4</v>
       </c>
-      <c r="AA21" s="5" t="n">
+      <c r="AA21" s="6" t="n">
         <f aca="false">Z21+1</f>
         <v>269.4</v>
       </c>
-      <c r="AB21" s="5" t="n">
+      <c r="AB21" s="6" t="n">
         <f aca="false">AA21+1</f>
         <v>270.4</v>
       </c>
-      <c r="AC21" s="5" t="n">
+      <c r="AC21" s="6" t="n">
         <f aca="false">AB21+1</f>
         <v>271.4</v>
       </c>
-      <c r="AD21" s="5" t="n">
+      <c r="AD21" s="6" t="n">
         <f aca="false">AC21+1</f>
         <v>272.4</v>
       </c>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="31"/>
-      <c r="AI21" s="32" t="n">
+      <c r="AE21" s="31" t="n">
+        <f aca="false">L21/$B$25</f>
+        <v>0.163370151554071</v>
+      </c>
+      <c r="AF21" s="32" t="n">
+        <f aca="false">L21/$L$15*100</f>
+        <v>18.1584582441114</v>
+      </c>
+      <c r="AI21" s="33" t="n">
         <f aca="false">AD21/AD15*100</f>
         <v>18.16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="6" t="n">
         <v>210.5</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="6" t="n">
         <v>189.5</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="6" t="n">
         <f aca="false">C22+1</f>
         <v>190.5</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="6" t="n">
         <f aca="false">D22+1</f>
         <v>191.5</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="6" t="n">
         <f aca="false">E22+1</f>
         <v>192.5</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="6" t="n">
         <f aca="false">F22+1</f>
         <v>193.5</v>
       </c>
-      <c r="H22" s="5" t="n">
+      <c r="H22" s="6" t="n">
         <f aca="false">G22+1</f>
         <v>194.5</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="6" t="n">
         <f aca="false">H22+1</f>
         <v>195.5</v>
       </c>
-      <c r="J22" s="5" t="n">
+      <c r="J22" s="6" t="n">
         <f aca="false">I22+1</f>
         <v>196.5</v>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="K22" s="6" t="n">
         <f aca="false">J22+1</f>
         <v>197.5</v>
       </c>
-      <c r="L22" s="34" t="n">
+      <c r="L22" s="35" t="n">
         <f aca="false">K22+1</f>
         <v>198.5</v>
       </c>
-      <c r="M22" s="5" t="n">
+      <c r="M22" s="6" t="n">
         <f aca="false">L22+1</f>
         <v>199.5</v>
       </c>
-      <c r="N22" s="5" t="n">
+      <c r="N22" s="6" t="n">
         <f aca="false">M22+1</f>
         <v>200.5</v>
       </c>
-      <c r="O22" s="5" t="n">
+      <c r="O22" s="6" t="n">
         <f aca="false">N22+1</f>
         <v>201.5</v>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="P22" s="6" t="n">
         <f aca="false">O22+1</f>
         <v>202.5</v>
       </c>
-      <c r="Q22" s="5" t="n">
+      <c r="Q22" s="6" t="n">
         <f aca="false">P22+1</f>
         <v>203.5</v>
       </c>
-      <c r="R22" s="5" t="n">
+      <c r="R22" s="6" t="n">
         <f aca="false">Q22+1</f>
         <v>204.5</v>
       </c>
-      <c r="S22" s="5" t="n">
+      <c r="S22" s="6" t="n">
         <f aca="false">R22+1</f>
         <v>205.5</v>
       </c>
-      <c r="T22" s="5" t="n">
+      <c r="T22" s="6" t="n">
         <f aca="false">S22+1</f>
         <v>206.5</v>
       </c>
-      <c r="U22" s="5" t="n">
+      <c r="U22" s="6" t="n">
         <f aca="false">T22+1</f>
         <v>207.5</v>
       </c>
-      <c r="V22" s="5" t="n">
+      <c r="V22" s="6" t="n">
         <f aca="false">U22+1</f>
         <v>208.5</v>
       </c>
-      <c r="W22" s="5" t="n">
+      <c r="W22" s="6" t="n">
         <f aca="false">V22+1</f>
         <v>209.5</v>
       </c>
-      <c r="X22" s="5" t="n">
+      <c r="X22" s="6" t="n">
         <f aca="false">W22+1</f>
         <v>210.5</v>
       </c>
-      <c r="Y22" s="5" t="n">
+      <c r="Y22" s="6" t="n">
         <f aca="false">X22+1</f>
         <v>211.5</v>
       </c>
-      <c r="Z22" s="5" t="n">
+      <c r="Z22" s="6" t="n">
         <f aca="false">Y22+1</f>
         <v>212.5</v>
       </c>
-      <c r="AA22" s="5" t="n">
+      <c r="AA22" s="6" t="n">
         <f aca="false">Z22+1</f>
         <v>213.5</v>
       </c>
-      <c r="AB22" s="5" t="n">
+      <c r="AB22" s="6" t="n">
         <f aca="false">AA22+1</f>
         <v>214.5</v>
       </c>
-      <c r="AC22" s="5" t="n">
+      <c r="AC22" s="6" t="n">
         <f aca="false">AB22+1</f>
         <v>215.5</v>
       </c>
-      <c r="AD22" s="5" t="n">
+      <c r="AD22" s="6" t="n">
         <f aca="false">AC22+1</f>
         <v>216.5</v>
       </c>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="31"/>
-      <c r="AI22" s="32" t="n">
+      <c r="AE22" s="31" t="n">
+        <f aca="false">L22/$B$25</f>
+        <v>0.127472386334446</v>
+      </c>
+      <c r="AF22" s="32" t="n">
+        <f aca="false">L22/$L$15*100</f>
+        <v>14.1684511063526</v>
+      </c>
+      <c r="AI22" s="33" t="n">
         <f aca="false">AD22/AD15*100</f>
         <v>14.4333333333333</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="8" t="n">
         <v>154.7</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="8" t="n">
         <v>164.7</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="8" t="n">
         <f aca="false">C23+1</f>
         <v>165.7</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="8" t="n">
         <f aca="false">D23+1</f>
         <v>166.7</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="8" t="n">
         <f aca="false">E23+1</f>
         <v>167.7</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="G23" s="8" t="n">
         <f aca="false">F23+1</f>
         <v>168.7</v>
       </c>
-      <c r="H23" s="7" t="n">
+      <c r="H23" s="8" t="n">
         <f aca="false">G23+1</f>
         <v>169.7</v>
       </c>
-      <c r="I23" s="7" t="n">
+      <c r="I23" s="8" t="n">
         <f aca="false">H23+1</f>
         <v>170.7</v>
       </c>
-      <c r="J23" s="7" t="n">
+      <c r="J23" s="8" t="n">
         <f aca="false">I23+1</f>
         <v>171.7</v>
       </c>
-      <c r="K23" s="7" t="n">
+      <c r="K23" s="8" t="n">
         <f aca="false">J23+1</f>
         <v>172.7</v>
       </c>
-      <c r="L23" s="36" t="n">
+      <c r="L23" s="37" t="n">
         <f aca="false">K23+1</f>
         <v>173.7</v>
       </c>
-      <c r="M23" s="7" t="n">
+      <c r="M23" s="8" t="n">
         <f aca="false">L23+1</f>
         <v>174.7</v>
       </c>
-      <c r="N23" s="7" t="n">
+      <c r="N23" s="8" t="n">
         <f aca="false">M23+1</f>
         <v>175.7</v>
       </c>
-      <c r="O23" s="7" t="n">
+      <c r="O23" s="8" t="n">
         <f aca="false">N23+1</f>
         <v>176.7</v>
       </c>
-      <c r="P23" s="7" t="n">
+      <c r="P23" s="8" t="n">
         <f aca="false">O23+1</f>
         <v>177.7</v>
       </c>
-      <c r="Q23" s="7" t="n">
+      <c r="Q23" s="8" t="n">
         <f aca="false">P23+1</f>
         <v>178.7</v>
       </c>
-      <c r="R23" s="7" t="n">
+      <c r="R23" s="8" t="n">
         <f aca="false">Q23+1</f>
         <v>179.7</v>
       </c>
-      <c r="S23" s="7" t="n">
+      <c r="S23" s="8" t="n">
         <f aca="false">R23+1</f>
         <v>180.7</v>
       </c>
-      <c r="T23" s="7" t="n">
+      <c r="T23" s="8" t="n">
         <f aca="false">S23+1</f>
         <v>181.7</v>
       </c>
-      <c r="U23" s="7" t="n">
+      <c r="U23" s="8" t="n">
         <f aca="false">T23+1</f>
         <v>182.7</v>
       </c>
-      <c r="V23" s="7" t="n">
+      <c r="V23" s="8" t="n">
         <f aca="false">U23+1</f>
         <v>183.7</v>
       </c>
-      <c r="W23" s="7" t="n">
+      <c r="W23" s="8" t="n">
         <f aca="false">V23+1</f>
         <v>184.7</v>
       </c>
-      <c r="X23" s="7" t="n">
+      <c r="X23" s="8" t="n">
         <f aca="false">W23+1</f>
         <v>185.7</v>
       </c>
-      <c r="Y23" s="7" t="n">
+      <c r="Y23" s="8" t="n">
         <f aca="false">X23+1</f>
         <v>186.7</v>
       </c>
-      <c r="Z23" s="7" t="n">
+      <c r="Z23" s="8" t="n">
         <f aca="false">Y23+1</f>
         <v>187.7</v>
       </c>
-      <c r="AA23" s="7" t="n">
+      <c r="AA23" s="8" t="n">
         <f aca="false">Z23+1</f>
         <v>188.7</v>
       </c>
-      <c r="AB23" s="7" t="n">
+      <c r="AB23" s="8" t="n">
         <f aca="false">AA23+1</f>
         <v>189.7</v>
       </c>
-      <c r="AC23" s="7" t="n">
+      <c r="AC23" s="8" t="n">
         <f aca="false">AB23+1</f>
         <v>190.7</v>
       </c>
-      <c r="AD23" s="7" t="n">
+      <c r="AD23" s="8" t="n">
         <f aca="false">AC23+1</f>
         <v>191.7</v>
       </c>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="38"/>
-      <c r="AI23" s="32" t="n">
+      <c r="AE23" s="31" t="n">
+        <f aca="false">L23/$B$25</f>
+        <v>0.111546365270999</v>
+      </c>
+      <c r="AF23" s="32" t="n">
+        <f aca="false">L23/$L$15*100</f>
+        <v>12.3982869379015</v>
+      </c>
+      <c r="AI23" s="33" t="n">
         <f aca="false">AD23/AD15*100</f>
         <v>12.78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AI24" s="32"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AI24" s="33"/>
     </row>
     <row r="25" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="41" t="n">
+      <c r="B25" s="1" t="n">
         <f aca="false">SUM(L17:L23)</f>
         <v>1557.2</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AI25" s="32" t="n">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AF25" s="40" t="n">
+        <f aca="false">SUM(AF17:AF23)</f>
+        <v>111.149179157744</v>
+      </c>
+      <c r="AI25" s="33" t="n">
         <f aca="false">SUM(AI17:AI23)</f>
         <v>112.213333333333</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AI26" s="32"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AI26" s="33"/>
     </row>
     <row r="27" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="43" t="n">
+      <c r="B27" s="40" t="n">
         <f aca="false">L15/B25*100%</f>
         <v>0.89969175443103</v>
       </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AI27" s="32"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AI27" s="33"/>
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AI28" s="32"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AI28" s="33"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="42"/>
-      <c r="AI29" s="32"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AI29" s="33"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40"/>
-      <c r="AI30" s="0" t="n">
+      <c r="A30" s="39"/>
+      <c r="AI30" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AJ30" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="41" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="42" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="42" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="43" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
     </row>
     <row r="40" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
